--- a/Final-Project-Test-Cases.xlsx
+++ b/Final-Project-Test-Cases.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="7" r:id="rId1"/>
-    <sheet name="Convert_neg_test" sheetId="13" r:id="rId2"/>
-    <sheet name="FundamentalsV2_neg_test" sheetId="9" r:id="rId3"/>
-    <sheet name="Manipulating_test_cases" sheetId="12" r:id="rId4"/>
-    <sheet name="Main_neg_test" sheetId="10" r:id="rId5"/>
+    <sheet name="Main_neg_test" sheetId="10" r:id="rId2"/>
+    <sheet name="Convert_neg_test" sheetId="13" r:id="rId3"/>
+    <sheet name="FundamentalsV2_neg_test" sheetId="9" r:id="rId4"/>
+    <sheet name="Manipulating_test_cases" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -509,6 +509,7 @@
           <rPr>
             <b/>
             <sz val="12"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
@@ -519,6 +520,7 @@
         <r>
           <rPr>
             <sz val="12"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
@@ -528,6 +530,7 @@
           <rPr>
             <b/>
             <sz val="12"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
@@ -537,6 +540,7 @@
         <r>
           <rPr>
             <sz val="12"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
@@ -547,6 +551,7 @@
           <rPr>
             <b/>
             <sz val="12"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
@@ -555,6 +560,7 @@
         <r>
           <rPr>
             <sz val="12"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
@@ -592,6 +598,7 @@
           <rPr>
             <b/>
             <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
@@ -601,6 +608,7 @@
         <r>
           <rPr>
             <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
@@ -611,6 +619,7 @@
           <rPr>
             <i/>
             <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
@@ -619,6 +628,7 @@
         <r>
           <rPr>
             <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
@@ -668,6 +678,7 @@
           <rPr>
             <b/>
             <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
@@ -700,219 +711,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-general description of a test.
-Identify the code structure being tested </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">but do not use line numbers – </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>they change</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-The purpose of the test, also known as Use Case Testing
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>The reason and intent of each test; this is similar to the rational for source code comments.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-+</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> means a positive test expecting a successful result.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>−</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> means a negative test to generate a validation message (PASS) or explore inaccurate, unexpected, undefined behaviours</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Test Input:
-exact data for entry to test the purpose.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-This is similar to source code in a program: it describes exactly how it will be done.
-The What and Why is in the Description and Purpose.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">expected Output:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">reference value to confirm 
-the test result – this is documented </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">before </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>the test is run.
-This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">…what the heading says. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Success?
-PASS or FAIL
-+ Positive test cases are expected to PASS.
-- Negative test cases:
-PASS if the program handles input that cannot be processed accurately.
-FAIL if an operating system message appears, or if the program gives inaccurate output. 
-E.g. data input of "ABC" when numeric input is prompted is a negative test -- you know it cannot be processed. 
-It is a PASS if the program recognises this condition and issues a diagnostic message to user. 
-It is a FAIL if the program returns an inaccurate response, e.g. atoi() returns zero in response to non-numeric parameter.  Comments are required to direct the programmer how to improve the code.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Required for a test case that FAILs and/or
-for unexpected results.</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -942,57 +740,38 @@
         <r>
           <rPr>
             <b/>
-            <sz val="12"/>
+            <sz val="10"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-The purpose of the test, also known as Use Case Testing
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>The reason and intent of each test; this is similar to the rational for source code comments.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-+</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> means a positive test expecting a successful result.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>−</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> means a negative test to generate a validation message (PASS) or explore inaccurate, unexpected, undefined behaviours</t>
+general description of a test.
+Identify the code structure being tested </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">but do not use line numbers – </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>they change</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>.</t>
         </r>
       </text>
     </comment>
@@ -1001,6 +780,65 @@
         <r>
           <rPr>
             <b/>
+            <sz val="12"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+The purpose of the test, also known as Use Case Testing
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>The reason and intent of each test; this is similar to the rational for source code comments.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
++</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> means a positive test expecting a successful result.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>−</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> means a negative test to generate a validation message (PASS) or explore inaccurate, unexpected, undefined behaviours</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
             <sz val="10"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
@@ -1020,7 +858,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1110,12 +948,53 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0">
+    <comment ref="A8" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+general description of a test.
+Identify the code structure being tested </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">but do not use line numbers – </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>they change</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
             <sz val="12"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
@@ -1126,6 +1005,7 @@
         <r>
           <rPr>
             <sz val="12"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
@@ -1135,6 +1015,7 @@
           <rPr>
             <b/>
             <sz val="12"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
@@ -1144,6 +1025,7 @@
         <r>
           <rPr>
             <sz val="12"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
@@ -1154,6 +1036,7 @@
           <rPr>
             <b/>
             <sz val="12"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
@@ -1162,6 +1045,7 @@
         <r>
           <rPr>
             <sz val="12"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
@@ -1169,7 +1053,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0">
+    <comment ref="C8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1193,7 +1077,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0">
+    <comment ref="D8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1234,7 +1118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0">
+    <comment ref="E8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1247,12 +1131,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0">
+    <comment ref="F8" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
@@ -1269,7 +1154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0">
+    <comment ref="G8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1284,12 +1169,53 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0">
+    <comment ref="A15" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+general description of a test.
+Identify the code structure being tested </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">but do not use line numbers – </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>they change</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
             <sz val="12"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
@@ -1300,6 +1226,7 @@
         <r>
           <rPr>
             <sz val="12"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
@@ -1309,6 +1236,7 @@
           <rPr>
             <b/>
             <sz val="12"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
@@ -1318,6 +1246,7 @@
         <r>
           <rPr>
             <sz val="12"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
@@ -1328,6 +1257,7 @@
           <rPr>
             <b/>
             <sz val="12"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
@@ -1336,6 +1266,7 @@
         <r>
           <rPr>
             <sz val="12"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
@@ -1343,7 +1274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0">
+    <comment ref="C15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1367,7 +1298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="0">
+    <comment ref="D15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1408,12 +1339,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0">
+    <comment ref="E15" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
@@ -1421,7 +1353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E23" authorId="0">
+    <comment ref="F15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1443,7 +1375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F23" authorId="0">
+    <comment ref="G15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1487,38 +1419,57 @@
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
+            <sz val="12"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-general description of a test.
-Identify the code structure being tested </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">but do not use line numbers – </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>they change</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>.</t>
+The purpose of the test, also known as Use Case Testing
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>The reason and intent of each test; this is similar to the rational for source code comments.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
++</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> means a positive test expecting a successful result.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>−</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> means a negative test to generate a validation message (PASS) or explore inaccurate, unexpected, undefined behaviours</t>
         </r>
       </text>
     </comment>
@@ -1527,57 +1478,22 @@
         <r>
           <rPr>
             <b/>
-            <sz val="12"/>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Test Input:
+exact data for entry to test the purpose.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-The purpose of the test, also known as Use Case Testing
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>The reason and intent of each test; this is similar to the rational for source code comments.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-+</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> means a positive test expecting a successful result.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>−</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> means a negative test to generate a validation message (PASS) or explore inaccurate, unexpected, undefined behaviours</t>
+This is similar to source code in a program: it describes exactly how it will be done.
+The What and Why is in the Description and Purpose.</t>
         </r>
       </text>
     </comment>
@@ -1590,22 +1506,39 @@
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
-          <t>Test Input:
-exact data for entry to test the purpose.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-This is similar to source code in a program: it describes exactly how it will be done.
-The What and Why is in the Description and Purpose.</t>
+          <t xml:space="preserve">expected Output:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">reference value to confirm 
+the test result – this is documented </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">before </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>the test is run.
+This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1614,52 +1547,11 @@
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">expected Output:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">reference value to confirm 
-the test result – this is documented </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">before </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>the test is run.
-This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
+          <t xml:space="preserve">…what the heading says. </t>
         </r>
       </text>
     </comment>
     <comment ref="F3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">…what the heading says. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1681,7 +1573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1695,47 +1587,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-general description of a test.
-Identify the code structure being tested </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">but do not use line numbers – </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>they change</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B22" authorId="0">
+    <comment ref="A18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1794,7 +1646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0">
+    <comment ref="B18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1818,7 +1670,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0">
+    <comment ref="C18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1859,7 +1711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F22" authorId="0">
+    <comment ref="D18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1872,7 +1724,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0">
+    <comment ref="E18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1894,12 +1746,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H22" authorId="0">
+    <comment ref="F18" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
@@ -1908,47 +1761,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A37" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-general description of a test.
-Identify the code structure being tested </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">but do not use line numbers – </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>they change</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B37" authorId="0">
+    <comment ref="A23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2007,7 +1820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C37" authorId="0">
+    <comment ref="B23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2031,7 +1844,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="0">
+    <comment ref="C23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2072,7 +1885,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F37" authorId="0">
+    <comment ref="D23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2085,7 +1898,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G37" authorId="0">
+    <comment ref="E23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2107,12 +1920,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H37" authorId="0">
+    <comment ref="F23" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
@@ -2145,12 +1959,651 @@
         </r>
       </text>
     </comment>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+general description of a test.
+Identify the code structure being tested </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">but do not use line numbers – </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>they change</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+The purpose of the test, also known as Use Case Testing
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>The reason and intent of each test; this is similar to the rational for source code comments.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
++</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> means a positive test expecting a successful result.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>−</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> means a negative test to generate a validation message (PASS) or explore inaccurate, unexpected, undefined behaviours</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Test Input:
+exact data for entry to test the purpose.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+This is similar to source code in a program: it describes exactly how it will be done.
+The What and Why is in the Description and Purpose.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">expected Output:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">reference value to confirm 
+the test result – this is documented </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">before </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>the test is run.
+This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">…what the heading says. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Success?
+PASS or FAIL
++ Positive test cases are expected to PASS.
+- Negative test cases:
+PASS if the program handles input that cannot be processed accurately.
+FAIL if an operating system message appears, or if the program gives inaccurate output. 
+E.g. data input of "ABC" when numeric input is prompted is a negative test -- you know it cannot be processed. 
+It is a PASS if the program recognises this condition and issues a diagnostic message to user. 
+It is a FAIL if the program returns an inaccurate response, e.g. atoi() returns zero in response to non-numeric parameter.  Comments are required to direct the programmer how to improve the code.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Required for a test case that FAILs and/or
+for unexpected results.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+general description of a test.
+Identify the code structure being tested </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">but do not use line numbers – </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>they change</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+The purpose of the test, also known as Use Case Testing
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>The reason and intent of each test; this is similar to the rational for source code comments.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
++</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> means a positive test expecting a successful result.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>−</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> means a negative test to generate a validation message (PASS) or explore inaccurate, unexpected, undefined behaviours</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Test Input:
+exact data for entry to test the purpose.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+This is similar to source code in a program: it describes exactly how it will be done.
+The What and Why is in the Description and Purpose.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">expected Output:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">reference value to confirm 
+the test result – this is documented </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">before </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>the test is run.
+This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">…what the heading says. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Success?
+PASS or FAIL
++ Positive test cases are expected to PASS.
+- Negative test cases:
+PASS if the program handles input that cannot be processed accurately.
+FAIL if an operating system message appears, or if the program gives inaccurate output. 
+E.g. data input of "ABC" when numeric input is prompted is a negative test -- you know it cannot be processed. 
+It is a PASS if the program recognises this condition and issues a diagnostic message to user. 
+It is a FAIL if the program returns an inaccurate response, e.g. atoi() returns zero in response to non-numeric parameter.  Comments are required to direct the programmer how to improve the code.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Required for a test case that FAILs and/or
+for unexpected results.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+general description of a test.
+Identify the code structure being tested </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">but do not use line numbers – </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>they change</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+The purpose of the test, also known as Use Case Testing
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>The reason and intent of each test; this is similar to the rational for source code comments.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
++</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> means a positive test expecting a successful result.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>−</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> means a negative test to generate a validation message (PASS) or explore inaccurate, unexpected, undefined behaviours</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Test Input:
+exact data for entry to test the purpose.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+This is similar to source code in a program: it describes exactly how it will be done.
+The What and Why is in the Description and Purpose.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">expected Output:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">reference value to confirm 
+the test result – this is documented </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">before </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>the test is run.
+This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">…what the heading says. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Success?
+PASS or FAIL
++ Positive test cases are expected to PASS.
+- Negative test cases:
+PASS if the program handles input that cannot be processed accurately.
+FAIL if an operating system message appears, or if the program gives inaccurate output. 
+E.g. data input of "ABC" when numeric input is prompted is a negative test -- you know it cannot be processed. 
+It is a PASS if the program recognises this condition and issues a diagnostic message to user. 
+It is a FAIL if the program returns an inaccurate response, e.g. atoi() returns zero in response to non-numeric parameter.  Comments are required to direct the programmer how to improve the code.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Required for a test case that FAILs and/or
+for unexpected results.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="242">
   <si>
     <t>Program
 or module:</t>
@@ -2352,10 +2805,16 @@
     <t>Conversions</t>
   </si>
   <si>
+    <t>-1234567890123456789012345678901234567890123456789012345678901234567890123456789'</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
     <t>string buffer size 80, it should convert any negative number with 78 digits.</t>
+  </si>
+  <si>
+    <t>1234567890123456789012345678901234567890123456789012345678901234567890123456789'</t>
   </si>
   <si>
     <t>string buffer size 80, it should convert any positive number with 79 digits.</t>
@@ -2430,8 +2889,8 @@
     </r>
   </si>
   <si>
-    <t>Nelson Antonini, Abcedi Ilacas, Mannatpreet Singh Khurana
-12/04/23</t>
+    <t>Nelson Antonini, Abcedi Ilacas,Wenhao Yang, Mannatpreet Singh Khurana
+12/12/23</t>
   </si>
   <si>
     <t>"a"</t>
@@ -2470,19 +2929,44 @@
     <t>The comparison correctly identifies the first string as lexicographically greater, which is consistent with the 'T' in "This" being greater than the 'A' in "Another".</t>
   </si>
   <si>
-    <t>#1: 'a' #2: 'b'</t>
+    <t>hello, world</t>
+  </si>
+  <si>
+    <t>Phrase #1 is 'hello'
+Phrase #2 is ' world'</t>
   </si>
   <si>
     <t>works as expected</t>
   </si>
   <si>
-    <t>#1: progra,mming. #2: PROGRAMMING</t>
-  </si>
-  <si>
-    <t>#1 is greater than #2</t>
-  </si>
-  <si>
-    <t>#1: "This is a long string specifically designed to test the buffer limit."     #2: "Another lengthy string that should come close to the maximum buffer size."</t>
+    <t>programmin,is,fun</t>
+  </si>
+  <si>
+    <t>Phrase #1 is 'programmin'
+Phrase #2 is 'is'
+Phrase #3 is 'fun'</t>
+  </si>
+  <si>
+    <t>I love programming, coding is my passion.</t>
+  </si>
+  <si>
+    <t>Phrase #1 is 'I love programming'
+Phrase #2 is 'coding is my passion.'</t>
+  </si>
+  <si>
+    <t>-123456789012345678901234567890123456789012345678901234567890123456789012345678</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>overflow</t>
+  </si>
+  <si>
+    <t>1234567890.0000</t>
+  </si>
+  <si>
+    <t>1234567890123456789012345678901234567890123456789012345678901234567890123456789</t>
   </si>
   <si>
     <r>
@@ -2506,8 +2990,8 @@
     </r>
   </si>
   <si>
-    <t>????? Tester's Name ?????
-????? Date ?????</t>
+    <t>Abcedi Ilacas,Wenhao Yang
+12/12/23</t>
   </si>
   <si>
     <t>Hello, World</t>
@@ -2519,6 +3003,18 @@
     <t>hello, my name is Nelson Antonini and I am studying CPA at Seneca College!1234</t>
   </si>
   <si>
+    <t>Wenhao Yang 20/11/2023</t>
+  </si>
+  <si>
+    <t>- Check main function will ask user to put right input</t>
+  </si>
+  <si>
+    <t>String:1aa</t>
+  </si>
+  <si>
+    <t>Main function only check the first letter of input, so 1aa would be treated like 1.</t>
+  </si>
+  <si>
     <t>Wenhao Yang 8/12/2023</t>
   </si>
   <si>
@@ -2541,6 +3037,24 @@
   </si>
   <si>
     <t>function not consider user input nothing</t>
+  </si>
+  <si>
+    <t>floating numbers</t>
+  </si>
+  <si>
+    <t>function get rid of number after dot</t>
+  </si>
+  <si>
+    <t>Wenhao Yang 12/12/2023</t>
+  </si>
+  <si>
+    <t>123.0000'</t>
+  </si>
+  <si>
+    <t>123.123000</t>
+  </si>
+  <si>
+    <t>function print redundent 0</t>
   </si>
   <si>
     <t>Nelson Antonini
@@ -3345,18 +3859,6 @@
   <si>
     <t>Abcedi Ilacas</t>
   </si>
-  <si>
-    <t>Wenhao Yang 20/11/2023</t>
-  </si>
-  <si>
-    <t>- Check main function will ask user to put right input</t>
-  </si>
-  <si>
-    <t>String:1aa</t>
-  </si>
-  <si>
-    <t>Main function only check the first letter of input, so 1aa would be treated like 1.</t>
-  </si>
 </sst>
 </file>
 
@@ -3369,7 +3871,7 @@
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="43">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3415,11 +3917,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -3427,6 +3924,11 @@
       <sz val="12"/>
       <name val="Wingdings"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3598,6 +4100,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Tahoma"/>
       <charset val="134"/>
@@ -3609,13 +4117,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <i/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
@@ -3627,8 +4131,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
@@ -3951,6 +4479,200 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -3966,200 +4688,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4616,8 +5144,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -4642,257 +5179,245 @@
     <xf numFmtId="180" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4901,8 +5426,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4910,46 +5441,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5281,988 +5831,1044 @@
   <sheetPr/>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="14.287037037037" customWidth="1"/>
-    <col min="2" max="2" width="20.4259259259259" style="14" customWidth="1"/>
-    <col min="3" max="3" width="32.4259259259259" style="14" customWidth="1"/>
-    <col min="4" max="4" width="33.8518518518519" style="14" customWidth="1"/>
-    <col min="5" max="5" width="19.4259259259259" style="15" customWidth="1"/>
-    <col min="6" max="6" width="10.287037037037" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.712962962963" style="14" customWidth="1"/>
+    <col min="1" max="1" width="14.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.8333333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.3333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.6666666666667" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="26.25" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="5" t="str">
         <f ca="1" t="array" ref="B1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>main</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" s="13" customFormat="1" ht="35.25" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:7">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="27.15" spans="1:8">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="46"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" ht="26.4" spans="1:9">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="92"/>
-      <c r="F4" s="93" t="s">
+      <c r="E4" s="91"/>
+      <c r="F4" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="94"/>
-      <c r="H4" s="46" t="s">
+      <c r="G4" s="93"/>
+      <c r="H4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="47"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" ht="26.4" spans="1:9">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96" t="s">
+      <c r="E5" s="94"/>
+      <c r="F5" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="95"/>
+      <c r="G5" s="94"/>
       <c r="H5" t="str">
         <f>$H$4</f>
         <v>These test cases should come from the module test cases</v>
       </c>
-      <c r="I5" s="47"/>
+      <c r="I5" s="43"/>
     </row>
     <row r="6" ht="39.6" spans="1:9">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="95" t="s">
+      <c r="E6" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="96"/>
-      <c r="G6" s="95" t="s">
+      <c r="F6" s="95"/>
+      <c r="G6" s="94" t="s">
         <v>25</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" ref="H6:H15" si="0">$H$4</f>
         <v>These test cases should come from the module test cases</v>
       </c>
-      <c r="I6" s="48"/>
+      <c r="I6" s="44"/>
     </row>
     <row r="7" ht="26.4" spans="1:9">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="96" t="s">
+      <c r="E7" s="94"/>
+      <c r="F7" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="95" t="s">
+      <c r="G7" s="94" t="s">
         <v>30</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
         <v>These test cases should come from the module test cases</v>
       </c>
-      <c r="I7" s="48"/>
+      <c r="I7" s="44"/>
     </row>
     <row r="8" ht="26.4" spans="1:9">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="95"/>
-      <c r="F8" s="96" t="s">
+      <c r="E8" s="94"/>
+      <c r="F8" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="95" t="s">
+      <c r="G8" s="94" t="s">
         <v>33</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
         <v>These test cases should come from the module test cases</v>
       </c>
-      <c r="I8" s="48"/>
+      <c r="I8" s="44"/>
     </row>
     <row r="9" ht="92.4" spans="1:9">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="96" t="s">
+      <c r="F9" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="95" t="s">
+      <c r="G9" s="94" t="s">
         <v>38</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
         <v>These test cases should come from the module test cases</v>
       </c>
-      <c r="I9" s="48"/>
+      <c r="I9" s="44"/>
     </row>
     <row r="10" ht="15" spans="1:9">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="95"/>
-      <c r="F10" s="96" t="s">
+      <c r="E10" s="94"/>
+      <c r="F10" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="95"/>
+      <c r="G10" s="94"/>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
         <v>These test cases should come from the module test cases</v>
       </c>
-      <c r="I10" s="48"/>
+      <c r="I10" s="44"/>
     </row>
     <row r="11" ht="39.6" spans="1:9">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="95"/>
-      <c r="F11" s="96" t="s">
+      <c r="E11" s="94"/>
+      <c r="F11" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="95"/>
+      <c r="G11" s="94"/>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
         <v>These test cases should come from the module test cases</v>
       </c>
-      <c r="I11" s="48"/>
+      <c r="I11" s="44"/>
     </row>
     <row r="12" ht="66" spans="1:9">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="97"/>
-      <c r="F12" s="96" t="s">
+      <c r="E12" s="94"/>
+      <c r="F12" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="94"/>
+      <c r="G12" s="93"/>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
         <v>These test cases should come from the module test cases</v>
       </c>
-      <c r="I12" s="47"/>
-    </row>
-    <row r="13" ht="39.6" spans="1:9">
-      <c r="A13" s="89" t="s">
+      <c r="I12" s="43"/>
+    </row>
+    <row r="13" ht="52.8" spans="1:9">
+      <c r="A13" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="78">
-        <v>-1.23456789012345e+77</v>
-      </c>
-      <c r="D13" s="79">
-        <v>-1.23456789012345e+77</v>
-      </c>
-      <c r="E13" s="97">
+      <c r="C13" s="109" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="109" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="98">
         <v>0</v>
       </c>
-      <c r="F13" s="96" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="98" t="s">
+      <c r="F13" s="95" t="s">
         <v>48</v>
+      </c>
+      <c r="G13" s="99" t="s">
+        <v>49</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
         <v>These test cases should come from the module test cases</v>
       </c>
-      <c r="I13" s="47"/>
+      <c r="I13" s="43"/>
     </row>
     <row r="14" ht="15" spans="1:9">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="74">
+      <c r="C14" s="69">
         <v>123456789</v>
       </c>
-      <c r="D14" s="74">
+      <c r="D14" s="69">
         <v>123456789</v>
       </c>
-      <c r="E14" s="97">
+      <c r="E14" s="98">
         <v>123456789</v>
       </c>
-      <c r="F14" s="96" t="s">
+      <c r="F14" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="98"/>
+      <c r="G14" s="99"/>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
         <v>These test cases should come from the module test cases</v>
       </c>
-      <c r="I14" s="47"/>
+      <c r="I14" s="43"/>
     </row>
     <row r="15" ht="39.6" spans="1:9">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="74">
-        <v>1.23456789012345e+78</v>
-      </c>
-      <c r="D15" s="74">
-        <v>1.23456789012345e+78</v>
-      </c>
-      <c r="E15" s="97">
+      <c r="C15" s="105" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="105" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="98">
         <v>-1</v>
       </c>
-      <c r="F15" s="96" t="s">
+      <c r="F15" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="98" t="s">
-        <v>49</v>
+      <c r="G15" s="99" t="s">
+        <v>51</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
         <v>These test cases should come from the module test cases</v>
       </c>
-      <c r="I15" s="47"/>
+      <c r="I15" s="43"/>
     </row>
     <row r="16" ht="26.4" spans="1:7">
-      <c r="A16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="106" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="A16" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="B16" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11" t="s">
+      <c r="C16" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="89"/>
+      <c r="F16" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" s="13" customFormat="1" ht="35.25" customHeight="1" spans="1:7">
-      <c r="A17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="106" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11" t="s">
+      <c r="G16" s="90"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:7">
+      <c r="A17" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="110" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="89"/>
+      <c r="F17" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="12"/>
+      <c r="G17" s="90"/>
     </row>
     <row r="18" ht="26.4" spans="1:7">
-      <c r="A18" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="106" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11" t="s">
+      <c r="A18" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="110" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="89"/>
+      <c r="F18" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="12"/>
+      <c r="G18" s="90"/>
     </row>
     <row r="19" ht="26.4" spans="1:9">
-      <c r="A19" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="106" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11" t="s">
+      <c r="A19" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="110" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="89"/>
+      <c r="F19" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="I19" s="47"/>
+      <c r="G19" s="90"/>
+      <c r="I19" s="43"/>
     </row>
     <row r="20" ht="26.4" spans="1:9">
-      <c r="A20" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="106" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="A20" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11" t="s">
+      <c r="C20" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="89"/>
+      <c r="F20" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="I20" s="47"/>
+      <c r="G20" s="90"/>
+      <c r="I20" s="43"/>
     </row>
     <row r="21" ht="40.35" spans="1:9">
-      <c r="A21" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="106" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="A21" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11" t="s">
+      <c r="C21" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="89"/>
+      <c r="F21" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="I21" s="48"/>
-    </row>
-    <row r="22" ht="40.35" spans="1:9">
-      <c r="A22" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7" t="s">
+      <c r="G21" s="90"/>
+      <c r="I21" s="44"/>
+    </row>
+    <row r="22" ht="53.55" spans="1:9">
+      <c r="A22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="48"/>
+      <c r="G22" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="44"/>
     </row>
     <row r="23" ht="27.15" spans="1:9">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="102" t="s">
+      <c r="B23" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="48"/>
+      <c r="I23" s="44"/>
     </row>
     <row r="24" ht="26.4" spans="1:9">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="79" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="79">
+      <c r="C24" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="74">
         <v>1</v>
       </c>
-      <c r="E24" s="95"/>
-      <c r="F24" s="96" t="s">
+      <c r="E24" s="94"/>
+      <c r="F24" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="95" t="s">
-        <v>69</v>
-      </c>
-      <c r="I24" s="48"/>
+      <c r="G24" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="44"/>
     </row>
     <row r="25" ht="26.4" spans="1:9">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="79">
+      <c r="C25" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="74">
         <v>15</v>
       </c>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96" t="s">
+      <c r="E25" s="94"/>
+      <c r="F25" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="I25" s="48"/>
+      <c r="G25" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" s="44"/>
     </row>
     <row r="26" ht="15" spans="1:9">
-      <c r="A26" s="89" t="s">
+      <c r="A26" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="103" t="s">
+      <c r="B26" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="95"/>
-      <c r="I26" s="47"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="94"/>
+      <c r="I26" s="43"/>
     </row>
     <row r="27" ht="39.6" spans="1:9">
-      <c r="A27" s="89" t="s">
+      <c r="A27" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="103" t="s">
+      <c r="B27" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="95"/>
-      <c r="F27" s="96" t="s">
+      <c r="C27" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="94"/>
+      <c r="F27" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="97" t="s">
-        <v>74</v>
-      </c>
-      <c r="I27" s="47"/>
+      <c r="G27" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="43"/>
     </row>
     <row r="28" ht="39.6" spans="1:9">
-      <c r="A28" s="89" t="s">
+      <c r="A28" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="103" t="s">
+      <c r="B28" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="107" t="s">
+      <c r="C28" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="111" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="94"/>
+      <c r="F28" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="95"/>
-      <c r="F28" s="96" t="s">
+      <c r="I28" s="44"/>
+    </row>
+    <row r="29" ht="79.2" spans="1:9">
+      <c r="A29" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="111" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="94"/>
+      <c r="F29" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="97" t="s">
-        <v>74</v>
-      </c>
-      <c r="I28" s="48"/>
-    </row>
-    <row r="29" ht="79.2" spans="1:9">
-      <c r="A29" s="89" t="s">
+      <c r="G29" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" s="44"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:7">
+      <c r="A30" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="94"/>
+      <c r="F30" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="94" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" ht="39.6" spans="1:7">
+      <c r="A31" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="94"/>
+      <c r="F31" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="94" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" ht="26.4" spans="1:9">
+      <c r="A32" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="94"/>
+      <c r="F32" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="I32" s="44"/>
+    </row>
+    <row r="33" ht="52.8" spans="1:9">
+      <c r="A33" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="111" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="111" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="112" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" s="44"/>
+    </row>
+    <row r="34" ht="15" spans="1:9">
+      <c r="A34" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="74">
+        <v>123456789</v>
+      </c>
+      <c r="D34" s="74">
+        <v>123456789</v>
+      </c>
+      <c r="E34" s="111" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="94"/>
+      <c r="I34" s="44"/>
+    </row>
+    <row r="35" ht="40.35" spans="1:9">
+      <c r="A35" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="113" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="113" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="I35" s="44"/>
+    </row>
+    <row r="36" ht="37.5" customHeight="1" spans="1:9">
+      <c r="A36" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I36" s="44"/>
+    </row>
+    <row r="37" ht="27.15" spans="1:9">
+      <c r="A37" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="44"/>
+    </row>
+    <row r="38" ht="15" spans="1:9">
+      <c r="A38" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="106" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="106" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="94"/>
+      <c r="F38" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="94"/>
+      <c r="I38" s="44"/>
+    </row>
+    <row r="39" ht="15" spans="1:9">
+      <c r="A39" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="94"/>
+      <c r="F39" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="94"/>
+      <c r="I39" s="44"/>
+    </row>
+    <row r="40" ht="42" customHeight="1" spans="1:9">
+      <c r="A40" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="94"/>
+      <c r="F40" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="94"/>
+      <c r="I40" s="44"/>
+    </row>
+    <row r="41" ht="15" spans="1:9">
+      <c r="A41" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="103" t="s">
+      <c r="B41" s="105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="94"/>
+      <c r="I41" s="44"/>
+    </row>
+    <row r="42" ht="15" spans="1:9">
+      <c r="A42" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="94"/>
+      <c r="I42" s="44"/>
+    </row>
+    <row r="43" ht="15" spans="1:7">
+      <c r="A43" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="107" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="95"/>
-      <c r="F29" s="96" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="I29" s="48"/>
-    </row>
-    <row r="30" s="13" customFormat="1" ht="35.25" customHeight="1" spans="1:7">
-      <c r="A30" s="89" t="s">
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="94"/>
+    </row>
+    <row r="44" ht="15" spans="1:7">
+      <c r="A44" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="103" t="s">
+      <c r="B44" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="95"/>
-    </row>
-    <row r="31" ht="15" spans="1:7">
-      <c r="A31" s="89" t="s">
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="94"/>
+    </row>
+    <row r="45" ht="15" spans="1:7">
+      <c r="A45" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="103" t="s">
+      <c r="B45" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="95"/>
-    </row>
-    <row r="32" ht="15" spans="1:9">
-      <c r="A32" s="89" t="s">
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="94"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="94"/>
+    </row>
+    <row r="46" ht="15" spans="1:7">
+      <c r="A46" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="103" t="s">
+      <c r="B46" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="95"/>
-      <c r="I32" s="48"/>
-    </row>
-    <row r="33" ht="15" spans="1:9">
-      <c r="A33" s="89" t="s">
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="94"/>
+    </row>
+    <row r="47" ht="52.8" spans="1:7">
+      <c r="A47" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="103" t="s">
+      <c r="B47" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="95"/>
-      <c r="F33" s="96" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="95" t="s">
-        <v>81</v>
-      </c>
-      <c r="I33" s="48"/>
-    </row>
-    <row r="34" ht="26.4" spans="1:9">
-      <c r="A34" s="89" t="s">
+      <c r="C47" s="111" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="111" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="94">
+        <v>0</v>
+      </c>
+      <c r="F47" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="G47" s="98" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" ht="15" spans="1:7">
+      <c r="A48" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="103" t="s">
+      <c r="B48" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="95"/>
-      <c r="F34" s="96" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" s="95" t="s">
-        <v>81</v>
-      </c>
-      <c r="I34" s="48"/>
-    </row>
-    <row r="35" ht="66.75" spans="1:9">
-      <c r="A35" s="89" t="s">
+      <c r="C48" s="74">
+        <v>123456789</v>
+      </c>
+      <c r="D48" s="74">
+        <v>123456789</v>
+      </c>
+      <c r="E48" s="74">
+        <v>123456789</v>
+      </c>
+      <c r="F48" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="94"/>
+    </row>
+    <row r="49" ht="40.35" spans="1:7">
+      <c r="A49" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="103" t="s">
+      <c r="B49" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="79" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="95"/>
-      <c r="F35" s="96" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="95" t="s">
-        <v>81</v>
-      </c>
-      <c r="I35" s="48"/>
-    </row>
-    <row r="36" ht="37.5" customHeight="1" spans="1:9">
-      <c r="A36" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="I36" s="48"/>
-    </row>
-    <row r="37" ht="27.15" spans="1:9">
-      <c r="A37" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I37" s="48"/>
-    </row>
-    <row r="38" ht="15" spans="1:9">
-      <c r="A38" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="103" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="104" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="104" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="95"/>
-      <c r="F38" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="95"/>
-      <c r="I38" s="48"/>
-    </row>
-    <row r="39" ht="15" spans="1:9">
-      <c r="A39" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="79" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="79" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" s="95"/>
-      <c r="F39" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="95"/>
-      <c r="I39" s="48"/>
-    </row>
-    <row r="40" ht="42" customHeight="1" spans="1:9">
-      <c r="A40" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="103" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="79" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" s="95"/>
-      <c r="F40" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="95"/>
-      <c r="I40" s="48"/>
-    </row>
-    <row r="41" ht="15" spans="1:9">
-      <c r="A41" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="103" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="95"/>
-      <c r="I41" s="48"/>
-    </row>
-    <row r="42" ht="15" spans="1:9">
-      <c r="A42" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="95"/>
-      <c r="I42" s="48"/>
-    </row>
-    <row r="43" ht="15" spans="1:7">
-      <c r="A43" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="103" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="95"/>
-    </row>
-    <row r="44" ht="15" spans="1:7">
-      <c r="A44" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="103" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="96"/>
-      <c r="G44" s="95"/>
-    </row>
-    <row r="45" ht="15" spans="1:7">
-      <c r="A45" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="95"/>
-    </row>
-    <row r="46" ht="15" spans="1:7">
-      <c r="A46" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="103" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="95"/>
-    </row>
-    <row r="47" ht="15" spans="1:7">
-      <c r="A47" s="89" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="103" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="79"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="95"/>
-    </row>
-    <row r="48" ht="15" spans="1:7">
-      <c r="A48" s="89" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="95"/>
-    </row>
-    <row r="49" ht="15.75" spans="1:7">
-      <c r="A49" s="89" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="103" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="99"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="100"/>
-      <c r="F49" s="101"/>
-      <c r="G49" s="100"/>
+      <c r="C49" s="113" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="113" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" s="103">
+        <v>0</v>
+      </c>
+      <c r="F49" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" s="98" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6281,118 +6887,72 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4259259259259" defaultRowHeight="13.2" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.2" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="29.287037037037" customWidth="1"/>
-    <col min="3" max="3" width="32.8518518518519" customWidth="1"/>
-    <col min="4" max="4" width="22.8518518518519" customWidth="1"/>
-    <col min="5" max="5" width="48.4259259259259" customWidth="1"/>
-    <col min="6" max="6" width="16.712962962963" customWidth="1"/>
-    <col min="7" max="7" width="76.8518518518518" customWidth="1"/>
+    <col min="1" max="1" width="11.8333333333333" customWidth="1"/>
+    <col min="2" max="2" width="41.8333333333333" customWidth="1"/>
+    <col min="6" max="6" width="20.8333333333333" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.15" spans="1:7">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="5" t="str">
         <f ca="1" t="array" ref="B1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>Convert_neg_test</v>
-      </c>
-      <c r="C1" s="3" t="s">
+        <v>Main_neg_test</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" ht="41.1" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" ht="31.5" customHeight="1" spans="1:7">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="88" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" ht="27.15" spans="1:8">
-      <c r="A3" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="46"/>
-    </row>
-    <row r="4" ht="15" spans="1:7">
-      <c r="A4" s="89" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="108" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="90" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="90">
-        <v>123</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="91" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="89" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>97</v>
+      <c r="G2" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" ht="52.8" spans="1:7">
+      <c r="A3" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="110" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="90" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -6410,481 +6970,844 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="29.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="32.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="22.8333333333333" customWidth="1"/>
+    <col min="5" max="5" width="48.5" customWidth="1"/>
+    <col min="6" max="6" width="16.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="76.8333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27.15" spans="1:7">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="str">
+        <f ca="1" t="array" ref="B1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
+        <v>Convert_neg_test</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" ht="41" customHeight="1" spans="1:7">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" ht="27.15" spans="1:8">
+      <c r="A3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="42"/>
+    </row>
+    <row r="4" ht="15" spans="1:7">
+      <c r="A4" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="115" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="85">
+        <v>123</v>
+      </c>
+      <c r="F4" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="87" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" ht="13.95" spans="1:7">
+      <c r="A6" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6">
+        <v>123.123</v>
+      </c>
+      <c r="D6" s="42">
+        <v>123.123</v>
+      </c>
+      <c r="E6">
+        <v>123</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" ht="27.15" spans="1:7">
+      <c r="A7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" ht="27.15" spans="1:7">
+      <c r="A8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:7">
+      <c r="A9" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="115" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="115" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="87" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11">
+        <v>123.123</v>
+      </c>
+      <c r="D11" s="42">
+        <v>123.123</v>
+      </c>
+      <c r="E11" s="116" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" ht="13.95"/>
+    <row r="14" ht="27.15" spans="1:7">
+      <c r="A14" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" ht="27.15" spans="1:7">
+      <c r="A15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:7">
+      <c r="A16" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="115" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="85" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="85">
+        <v>123</v>
+      </c>
+      <c r="F16" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="87" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18">
+        <v>123.123</v>
+      </c>
+      <c r="D18" s="42">
+        <v>123.123</v>
+      </c>
+      <c r="E18">
+        <v>123</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A14:E14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="19.712962962963" customWidth="1"/>
-    <col min="2" max="3" width="29.4259259259259" style="14" customWidth="1"/>
-    <col min="4" max="4" width="27.287037037037" style="14" customWidth="1"/>
-    <col min="5" max="5" width="41.4259259259259" style="14" customWidth="1"/>
-    <col min="6" max="6" width="28" style="15" customWidth="1"/>
-    <col min="7" max="7" width="10.4259259259259" style="13" customWidth="1"/>
-    <col min="8" max="8" width="36.4259259259259" style="14" customWidth="1"/>
+    <col min="1" max="1" width="19.6666666666667" customWidth="1"/>
+    <col min="2" max="3" width="29.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.3333333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="41.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.55" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="5" t="str">
         <f ca="1" t="array" ref="B1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>FundamentalsV2_neg_test</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" s="13" customFormat="1" ht="32.25" customHeight="1" spans="1:8">
-      <c r="A2" s="49" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="32.25" customHeight="1" spans="1:8">
+      <c r="A2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="1" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="52" t="s">
-        <v>98</v>
+      <c r="H2" s="48" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="3" ht="27.15" spans="1:8">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="55"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" ht="15" spans="1:9">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="47"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:9">
-      <c r="A5" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="32" t="s">
+      <c r="A5" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="48"/>
+      <c r="D5" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" s="38"/>
+      <c r="I5" s="44"/>
     </row>
     <row r="6" ht="27.75" customHeight="1" spans="1:8">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" ht="31.5" customHeight="1" spans="1:8">
-      <c r="A7" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="32" t="s">
+      <c r="A7" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="H7" s="42"/>
+      <c r="D7" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" ht="18.6" spans="1:10">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="J8" s="31"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="J8" s="27"/>
     </row>
     <row r="9" ht="31.5" customHeight="1" spans="1:10">
-      <c r="A9" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="32" t="s">
+      <c r="A9" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31" t="s">
+      <c r="D9" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="42"/>
-      <c r="J9" s="31"/>
+      <c r="G9" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="38"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" ht="32.25" customHeight="1" spans="1:8">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:8">
-      <c r="A11" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" s="42"/>
+      <c r="A11" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:8">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:8">
-      <c r="A13" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31" t="s">
+      <c r="A13" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="H13" s="42"/>
+      <c r="G13" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" ht="35.25" customHeight="1" spans="1:8">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:8">
-      <c r="A15" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="H15" s="42"/>
+      <c r="A15" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" ht="33" customHeight="1" spans="1:8">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
     </row>
     <row r="17" ht="41.25" customHeight="1" spans="1:8">
-      <c r="A17" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65" t="s">
+      <c r="A17" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="66" t="s">
-        <v>133</v>
+      <c r="H17" s="61" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="18" ht="27.15" spans="1:8">
-      <c r="A18" s="109" t="s">
+      <c r="A18" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="67" t="s">
+      <c r="F18" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="69"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="64"/>
     </row>
     <row r="19" ht="7.5" customHeight="1" spans="1:8">
-      <c r="A19" s="70"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="69"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="64"/>
     </row>
     <row r="20" ht="26.4" spans="1:8">
-      <c r="A20" s="103" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="75">
+      <c r="A20" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="70">
         <v>0</v>
       </c>
-      <c r="D20" s="75"/>
-      <c r="E20" s="76" t="s">
+      <c r="D20" s="70"/>
+      <c r="E20" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20" s="68"/>
-      <c r="H20" s="69"/>
+      <c r="F20" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" s="63"/>
+      <c r="H20" s="64"/>
     </row>
     <row r="21" ht="26.4" spans="1:8">
-      <c r="A21" s="107" t="s">
-        <v>137</v>
-      </c>
-      <c r="B21" s="78" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="79">
+      <c r="A21" s="111" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="74">
         <v>12</v>
       </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="80" t="s">
+      <c r="D21" s="74"/>
+      <c r="E21" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="68"/>
-      <c r="H21" s="69"/>
+      <c r="F21" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
     </row>
     <row r="22" ht="45.75" customHeight="1" spans="1:8">
-      <c r="A22" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="82" t="s">
+      <c r="A22" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="83" t="s">
-        <v>133</v>
+      <c r="H22" s="78" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="23" ht="27.15" spans="1:8">
-      <c r="A23" s="109" t="s">
+      <c r="A23" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="53" t="s">
+      <c r="E23" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="67" t="s">
+      <c r="F23" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="84"/>
-      <c r="H23" s="85"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="80"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="70"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="69"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="64"/>
     </row>
     <row r="25" ht="26.4" spans="1:8">
-      <c r="A25" s="103" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="75" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" s="75"/>
-      <c r="E25" s="76" t="s">
+      <c r="A25" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="70"/>
+      <c r="E25" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="G25" s="68"/>
-      <c r="H25" s="69"/>
+      <c r="F25" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="G25" s="63"/>
+      <c r="H25" s="64"/>
     </row>
     <row r="26" ht="57.75" customHeight="1" spans="1:8">
-      <c r="A26" s="107" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" s="78" t="s">
-        <v>140</v>
-      </c>
-      <c r="C26" s="79" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="79"/>
-      <c r="E26" s="80" t="s">
+      <c r="A26" s="111" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="74"/>
+      <c r="E26" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="81" t="s">
-        <v>142</v>
-      </c>
-      <c r="G26" s="86"/>
-      <c r="H26" s="87"/>
+      <c r="F26" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" s="81"/>
+      <c r="H26" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -6924,12 +7847,12 @@
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G24:H26"/>
-    <mergeCell ref="G15:H16"/>
     <mergeCell ref="G7:H8"/>
     <mergeCell ref="G9:H10"/>
     <mergeCell ref="G11:H12"/>
     <mergeCell ref="G13:H14"/>
+    <mergeCell ref="G24:H26"/>
+    <mergeCell ref="G15:H16"/>
     <mergeCell ref="G19:H21"/>
     <mergeCell ref="G5:H6"/>
   </mergeCells>
@@ -6940,871 +7863,871 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="14.287037037037" customWidth="1"/>
-    <col min="2" max="2" width="25" style="14" customWidth="1"/>
-    <col min="3" max="3" width="29.4259259259259" style="14" customWidth="1"/>
-    <col min="4" max="5" width="27.287037037037" style="14" customWidth="1"/>
-    <col min="6" max="6" width="20.1388888888889" style="15" customWidth="1"/>
-    <col min="7" max="7" width="10.4259259259259" style="13" customWidth="1"/>
-    <col min="8" max="8" width="28.712962962963" style="14" customWidth="1"/>
+    <col min="1" max="1" width="14.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="2" customWidth="1"/>
+    <col min="4" max="5" width="27.3333333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.1666666666667" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.6666666666667" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="5" t="str">
         <f ca="1" t="array" ref="B1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>Manipulating_test_cases</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" s="13" customFormat="1" ht="35.25" customHeight="1" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:8">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>143</v>
+      <c r="H2" s="11" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="3" ht="27.15" spans="1:9">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="17" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="46"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" ht="28.5" customHeight="1" spans="1:10">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="J4" s="47"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="25"/>
+      <c r="J4" s="43"/>
     </row>
     <row r="5" ht="62.25" customHeight="1" spans="1:10">
-      <c r="A5" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" s="32" t="s">
+      <c r="A5" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="31" t="s">
+      <c r="E5" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="J5" s="48"/>
+      <c r="H5" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="J5" s="44"/>
     </row>
     <row r="6" ht="15.6" spans="1:8">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
     </row>
     <row r="7" ht="46.5" customHeight="1" spans="1:8">
-      <c r="A7" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31" t="s">
+      <c r="A7" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="31" t="s">
-        <v>153</v>
+      <c r="H7" s="27" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="8" ht="47.25" customHeight="1" spans="1:11">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="K8" s="31"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="K8" s="27"/>
     </row>
     <row r="9" ht="52.5" customHeight="1" spans="1:11">
-      <c r="A9" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="31" t="s">
+      <c r="A9" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="K9" s="31"/>
+      <c r="H9" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" ht="44.25" customHeight="1" spans="1:8">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
     </row>
     <row r="11" ht="39.75" customHeight="1" spans="1:8">
-      <c r="A11" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="32" t="s">
+      <c r="A11" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="31" t="s">
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="31" t="s">
-        <v>158</v>
+      <c r="H11" s="27" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="12" ht="33.75" customHeight="1" spans="1:8">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
     </row>
     <row r="13" ht="60" customHeight="1" spans="1:8">
-      <c r="A13" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="32" t="s">
+      <c r="A13" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="31" t="s">
+      <c r="E13" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" ht="101.25" customHeight="1" spans="1:8">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" ht="48" customHeight="1" spans="1:8">
+      <c r="A15" s="26" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="14" ht="101.25" customHeight="1" spans="1:8">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15" ht="48" customHeight="1" spans="1:8">
-      <c r="A15" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" ht="33" customHeight="1" spans="1:8">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" ht="86.25" customHeight="1" spans="1:8">
+      <c r="A17" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" ht="106.5" customHeight="1" spans="1:8">
+      <c r="A18" s="34"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+    </row>
+    <row r="19" ht="37.5" customHeight="1" spans="1:8">
+      <c r="A19" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="G15" s="31" t="s">
+      <c r="D19" s="31"/>
+      <c r="E19" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="31" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" ht="33" customHeight="1" spans="1:8">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-    </row>
-    <row r="17" ht="86.25" customHeight="1" spans="1:8">
-      <c r="A17" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" ht="106.5" customHeight="1" spans="1:8">
-      <c r="A18" s="38"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-    </row>
-    <row r="19" ht="37.5" customHeight="1" spans="1:8">
-      <c r="A19" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>180</v>
+      <c r="H19" s="27" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="20" ht="139.5" customHeight="1" spans="1:8">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" ht="40.5" customHeight="1" spans="1:8">
-      <c r="A21" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="7" t="s">
+      <c r="A21" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>183</v>
+      <c r="H21" s="11" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="22" ht="27.15" spans="1:8">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="17" t="s">
+      <c r="E22" s="15"/>
+      <c r="F22" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" ht="24" customHeight="1" spans="1:8">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="25"/>
     </row>
     <row r="24" ht="15.6" spans="1:8">
-      <c r="A24" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="D24" s="110" t="s">
-        <v>187</v>
-      </c>
-      <c r="E24" s="110" t="s">
+      <c r="A24" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" s="118" t="s">
+        <v>206</v>
+      </c>
+      <c r="E24" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="31" t="s">
+      <c r="F24" s="29"/>
+      <c r="G24" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="31" t="s">
-        <v>188</v>
+      <c r="H24" s="27" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="25" ht="15.6" spans="1:8">
-      <c r="A25" s="41"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
     </row>
     <row r="26" ht="15.6" spans="1:8">
-      <c r="A26" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="31" t="s">
+      <c r="A26" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="F26" s="29"/>
+      <c r="G26" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="33" t="s">
-        <v>74</v>
+      <c r="H26" s="29" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="27" ht="73.5" customHeight="1" spans="1:8">
-      <c r="A27" s="41"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="34"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="30"/>
     </row>
     <row r="28" ht="15.6" spans="1:8">
-      <c r="A28" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="D28" s="110" t="s">
-        <v>197</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="31" t="s">
+      <c r="A28" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="D28" s="118" t="s">
+        <v>216</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="F28" s="29"/>
+      <c r="G28" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="31" t="s">
-        <v>199</v>
+      <c r="H28" s="27" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="29" ht="58.5" customHeight="1" spans="1:8">
-      <c r="A29" s="41"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
     </row>
     <row r="30" ht="15.6" spans="1:8">
-      <c r="A30" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="D30" s="111" t="s">
-        <v>204</v>
-      </c>
-      <c r="E30" s="111" t="s">
-        <v>205</v>
-      </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="31" t="s">
+      <c r="A30" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="D30" s="119" t="s">
+        <v>223</v>
+      </c>
+      <c r="E30" s="119" t="s">
+        <v>224</v>
+      </c>
+      <c r="F30" s="29"/>
+      <c r="G30" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="31" t="s">
-        <v>206</v>
+      <c r="H30" s="27" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="31" ht="42" customHeight="1" spans="1:8">
-      <c r="A31" s="41"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
     </row>
     <row r="32" ht="15.6" spans="1:8">
-      <c r="A32" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="B32" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="31" t="s">
+      <c r="A32" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="F32" s="29"/>
+      <c r="G32" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="31" t="s">
-        <v>212</v>
+      <c r="H32" s="27" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="33" ht="45.75" customHeight="1" spans="1:8">
-      <c r="A33" s="41"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
     </row>
     <row r="34" ht="15.6" spans="1:8">
-      <c r="A34" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="B34" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="E34" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="F34" s="112" t="s">
-        <v>218</v>
-      </c>
-      <c r="G34" s="31" t="s">
+      <c r="A34" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="F34" s="120" t="s">
+        <v>237</v>
+      </c>
+      <c r="G34" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H34" s="31" t="s">
-        <v>219</v>
+      <c r="H34" s="27" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="35" ht="84.75" customHeight="1" spans="1:8">
-      <c r="A35" s="41"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="D35" s="28"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
     </row>
     <row r="36" ht="38.25" customHeight="1" spans="1:8">
-      <c r="A36" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="7" t="s">
+      <c r="A36" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H36" s="8" t="s">
-        <v>222</v>
+      <c r="H36" s="11" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="37" ht="27.15" spans="1:8">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="102" t="s">
+      <c r="B37" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="17" t="s">
+      <c r="E37" s="15"/>
+      <c r="F37" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="20" t="s">
+      <c r="G37" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="21" t="s">
+      <c r="H37" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="22"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="29"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" s="23"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="25"/>
     </row>
     <row r="39" ht="15.6" spans="1:8">
-      <c r="A39" s="30"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
     </row>
     <row r="40" ht="15.6" spans="1:8">
-      <c r="A40" s="30"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
     </row>
     <row r="41" ht="15.6" spans="1:8">
-      <c r="A41" s="30"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
     </row>
     <row r="42" ht="15.6" spans="1:8">
-      <c r="A42" s="30"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
     </row>
     <row r="43" ht="15.6" spans="1:8">
-      <c r="A43" s="30"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
     </row>
     <row r="44" ht="15.6" spans="1:8">
-      <c r="A44" s="30"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
     </row>
     <row r="45" ht="15.6" spans="1:8">
-      <c r="A45" s="30"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
     </row>
     <row r="46" ht="15.6" spans="1:8">
-      <c r="A46" s="30"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
     </row>
     <row r="47" ht="15.6" spans="1:8">
-      <c r="A47" s="30"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
     </row>
     <row r="48" ht="15.6" spans="1:8">
-      <c r="A48" s="30"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
     </row>
     <row r="49" ht="15.6" spans="1:8">
-      <c r="A49" s="30"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
     </row>
     <row r="50" ht="15.6" spans="1:8">
-      <c r="A50" s="30"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
     </row>
     <row r="51" ht="15.6" spans="1:8">
-      <c r="A51" s="37"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
     </row>
     <row r="52" ht="15.6" spans="1:8">
-      <c r="A52" s="38"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
     </row>
     <row r="53" ht="15.6" spans="1:8">
-      <c r="A53" s="30"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
     </row>
     <row r="54" ht="15.6" spans="1:8">
-      <c r="A54" s="30"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="164">
@@ -7978,87 +8901,4 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4259259259259" defaultRowHeight="13.2" outlineLevelRow="2" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="11.8518518518519" customWidth="1"/>
-    <col min="2" max="2" width="41.8518518518519" customWidth="1"/>
-    <col min="6" max="6" width="20.8518518518519" customWidth="1"/>
-    <col min="7" max="7" width="20.4259259259259" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="27.15" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="str">
-        <f ca="1" t="array" ref="B1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>Main_neg_test</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" ht="52.8" spans="1:7">
-      <c r="A3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="106" t="s">
-        <v>224</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A2:E2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Final-Project-Test-Cases.xlsx
+++ b/Final-Project-Test-Cases.xlsx
@@ -4102,11 +4102,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
@@ -4117,9 +4113,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
@@ -4131,8 +4142,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
@@ -4143,18 +4154,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -5832,7 +5832,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.2"/>
